--- a/docs/test cases/DVM_PKG/verification_templates/DVM_error_verification.xlsx
+++ b/docs/test cases/DVM_PKG/verification_templates/DVM_error_verification.xlsx
@@ -156,39 +156,21 @@
     <t>ERR_LEG_DAS_YN</t>
   </si>
   <si>
-    <t>Abnormally High Cruise Days at Sea</t>
-  </si>
-  <si>
     <t>Cruise is too long (DAS based on start and end dates) &gt; 120 days</t>
   </si>
   <si>
-    <t>The Cruise (HI1001) with Start Date (01/21/2010) and End Date (07/21/2010) and number of Legs (3) has an abnormally high number ( &gt; 120) of Days at Sea (178)</t>
-  </si>
-  <si>
     <t>WARN_CRUISE_DAS_YN</t>
   </si>
   <si>
-    <t>Abnormally High Cruise Length</t>
-  </si>
-  <si>
     <t>Cruise is too long (based on the cruise start and end dates even if the leg DAS is not over the threshold) &gt; 160 days</t>
   </si>
   <si>
-    <t xml:space="preserve">The Cruise (HI1001) with Start Date (01/21/2010) and End Date (07/21/2010) and number of Legs (3) is abnormally long ( &gt; 160) days based on the date range (182 days) </t>
-  </si>
-  <si>
     <t>WARN_CRUISE_DATE_RNG_YN</t>
   </si>
   <si>
-    <t>Abnormally High Leg Days at Sea</t>
-  </si>
-  <si>
     <t>Leg is too long (DAS based on start and end dates) &gt; 30 days</t>
   </si>
   <si>
-    <t>The Cruise (HI1001) has a Cruise Leg (HI1001_LEGI) on the Vessel (Hi'ialakai) with a Start Date (01/21/2010) and End Date (03/20/2010) that has an abnormally high number ( &gt; 30) of Days at Sea (59)</t>
-  </si>
-  <si>
     <t>WARN_LEG_DAS_YN</t>
   </si>
   <si>
@@ -228,12 +210,6 @@
     <t>There are two legs for the same Vessel (Hi'ialakai) whose leg dates overlap; Leg 1: (Cruise: HI1101, Leg Name: HA1101_LEG_III, Start Date: 05/12/2011, End Date: 07/24/2011), Leg 2: (Cruise: HI1102, Leg Name: HA1102_LEG_I, Start Date: 07/23/2011, End Date: 08/11/2011)</t>
   </si>
   <si>
-    <t xml:space="preserve">The Cruise (HI1101) with Start Date (11/05/2010) and End Date (07/24/2011) and number of Legs (3) is abnormally long ( &gt; 160) days based on the date range (262 days) </t>
-  </si>
-  <si>
-    <t>The Cruise (HI1101) has a Cruise Leg (HA1101_LEG_III) on the Vessel (Hi'ialakai) with a Start Date (05/12/2011) and End Date (07/24/2011) that has an abnormally high number ( &gt; 30) of Days at Sea (74)</t>
-  </si>
-  <si>
     <t>The Cruise (HI1101) has a Cruise Leg (HA1101_LEG_II) on the Vessel (Hi'ialakai) with a Start Date (04/07/2011) and End Date (05/03/2011) that does not have at least one type of Gear defined for it</t>
   </si>
   <si>
@@ -267,9 +243,6 @@
     <t>ERR_CRUISE_DATE_RNG_YN</t>
   </si>
   <si>
-    <t>The Cruise (OES0411) has a Cruise Leg (OES0411_LEGI) on the Vessel (Oscar Elton Sette) with a Start Date (08/07/2004) and End Date (09/07/2004) that has an abnormally high number ( &gt; 30) of Days at Sea (32)</t>
-  </si>
-  <si>
     <t>OES0509</t>
   </si>
   <si>
@@ -309,9 +282,6 @@
     <t>RL-17-05 Leg 1, RL-17-05 Leg 2, RL-17-05 Leg 3, RL-17-05 Leg 4, RL-17-05 Leg 5, RL-17-05 Leg 6</t>
   </si>
   <si>
-    <t>The Cruise (RL-17-05) with Start Date (08/17/2017) and End Date (01/10/2018) and number of Legs (6) has an abnormally high number ( &gt; 120) of Days at Sea (122)</t>
-  </si>
-  <si>
     <t>The Cruise (RL-17-05) with Start Date (08/17/2017) and End Date (01/10/2018) and number of Legs (6) does not have at least one Primary Survey Category defined for it</t>
   </si>
   <si>
@@ -342,9 +312,6 @@
     <t>There are two legs for the same Cruise (SE-15-01) whose leg dates overlap; Cruise Leg 1: (Leg Name: SE-15-01 Leg 2, Vessel: Hi'ialakai, Start Date: 04/13/2015, End Date: 05/20/2015), Leg 2: (Leg Name: SE-15-01 Leg 1, Vessel: Oscar Elton Sette, Start Date: 04/03/2015, End Date: 04/14/2015)</t>
   </si>
   <si>
-    <t>The Cruise (SE-15-01) has a Cruise Leg (SE-15-01 Leg 2) on the Vessel (Hi'ialakai) with a Start Date (04/13/2015) and End Date (05/20/2015) that has an abnormally high number ( &gt; 30) of Days at Sea (38)</t>
-  </si>
-  <si>
     <t>TC-03-07</t>
   </si>
   <si>
@@ -366,61 +333,94 @@
     <t>TC0201_LEGI, TC0201_LEGII</t>
   </si>
   <si>
-    <t xml:space="preserve">The Cruise (TC0201) with Start Date (01/21/2002) and End Date (07/24/2002) and number of Legs (2) is abnormally long ( &gt; 160) days based on the date range (185 days) </t>
-  </si>
-  <si>
-    <t>The Cruise (TC0201) has a Cruise Leg (TC0201_LEGII) on the Vessel (Townsend Cromwell) with a Start Date (05/15/2002) and End Date (07/24/2002) that has an abnormally high number ( &gt; 30) of Days at Sea (71)</t>
-  </si>
-  <si>
     <t>select cruise_name, LEG_NAME_CD_LIST, err_severity_code, err_type_name, err_type_desc, ERROR_DESCRIPTION, IND_FIELD_NAME from CCD_CRUISE_SUMM_ERR_V order by cruise_name, err_severity_code, err_type_name</t>
   </si>
   <si>
-    <t>The cruise name does not follow the naming convention {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
-  </si>
-  <si>
-    <t>The Cruise (HA1007) with Start Date (09/04/2010) and End Date (09/29/2010) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
-  </si>
-  <si>
-    <t>The Cruise (HA1007 (copy)) with Start Date (09/04/2010) and End Date (09/29/2010) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
-  </si>
-  <si>
-    <t>The Cruise (HI0401) with Start Date (09/13/2004) and End Date (09/05/2004) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
-  </si>
-  <si>
-    <t>The Cruise (HI0610) with Start Date (07/27/2006) and End Date (08/20/2006) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
-  </si>
-  <si>
-    <t>The Cruise (HI1001) with Start Date (01/21/2010) and End Date (07/21/2010) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
-  </si>
-  <si>
-    <t>The Cruise (HI1101) with Start Date (11/05/2010) and End Date (07/24/2011) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
-  </si>
-  <si>
-    <t>The Cruise (HI1102) with Start Date (07/23/2011) and End Date (08/30/2011) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
-  </si>
-  <si>
-    <t>The Cruise (OES0411) with Start Date (08/07/2004) and End Date (09/13/2005) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
-  </si>
-  <si>
-    <t>The Cruise (OES0509) with Start Date (07/19/2005) and End Date (08/05/2005) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
-  </si>
-  <si>
-    <t>The Cruise (OES0607) with Start Date (06/05/2006) and End Date (06/05/2006) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
-  </si>
-  <si>
-    <t>The Cruise (OES0706) with Start Date (07/18/2007) and End Date (08/14/2007) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
-  </si>
-  <si>
     <t>The cruise name follows the naming convention {SN}-{YR}-{##} but {YR} does not match the Cruise Fiscal Year based on the first leg's start date</t>
   </si>
   <si>
     <t>The Cruise (TC-03-07) with Start Date (09/08/2002) and End Date (10/07/2002) has a valid Cruise Name based on the required naming convention ({SN}-{YR}-{##}) but the extracted {YR} value (03) does not match the truncated Cruise's Fiscal Year value (02)</t>
   </si>
   <si>
-    <t>The Cruise (TC0009 (copy)) with Start Date () and End Date () has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
-  </si>
-  <si>
-    <t>The Cruise (TC0201) with Start Date (01/21/2002) and End Date (07/24/2002) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
+    <t>The Cruise (HI1001) with Start Date (01/21/2010) and End Date (07/21/2010) and number of Legs (3) has an unusually high number ( &gt; 120) of Days at Sea (178)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cruise (HI1001) with Start Date (01/21/2010) and End Date (07/21/2010) and number of Legs (3) is unusually long ( &gt; 160) days based on the date range (182 days) </t>
+  </si>
+  <si>
+    <t>The Cruise (HI1001) has a Cruise Leg (HI1001_LEGI) on the Vessel (Hi'ialakai) with a Start Date (01/21/2010) and End Date (03/20/2010) that has an unusually high number ( &gt; 30) of Days at Sea (59)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cruise (HI1101) with Start Date (11/05/2010) and End Date (07/24/2011) and number of Legs (3) is unusually long ( &gt; 160) days based on the date range (262 days) </t>
+  </si>
+  <si>
+    <t>The Cruise (HI1101) has a Cruise Leg (HA1101_LEG_III) on the Vessel (Hi'ialakai) with a Start Date (05/12/2011) and End Date (07/24/2011) that has an unusually high number ( &gt; 30) of Days at Sea (74)</t>
+  </si>
+  <si>
+    <t>The Cruise (OES0411) has a Cruise Leg (OES0411_LEGI) on the Vessel (Oscar Elton Sette) with a Start Date (08/07/2004) and End Date (09/07/2004) that has an unusually high number ( &gt; 30) of Days at Sea (32)</t>
+  </si>
+  <si>
+    <t>The Cruise (RL-17-05) with Start Date (08/17/2017) and End Date (01/10/2018) and number of Legs (6) has an unusually high number ( &gt; 120) of Days at Sea (122)</t>
+  </si>
+  <si>
+    <t>The Cruise (SE-15-01) has a Cruise Leg (SE-15-01 Leg 2) on the Vessel (Hi'ialakai) with a Start Date (04/13/2015) and End Date (05/20/2015) that has an unusually high number ( &gt; 30) of Days at Sea (38)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cruise (TC0201) with Start Date (01/21/2002) and End Date (07/24/2002) and number of Legs (2) is unusually long ( &gt; 160) days based on the date range (185 days) </t>
+  </si>
+  <si>
+    <t>The Cruise (TC0201) has a Cruise Leg (TC0201_LEGII) on the Vessel (Townsend Cromwell) with a Start Date (05/15/2002) and End Date (07/24/2002) that has an unusually high number ( &gt; 30) of Days at Sea (71)</t>
+  </si>
+  <si>
+    <t>Unusually High Cruise Days at Sea</t>
+  </si>
+  <si>
+    <t>Unusually High Cruise Length</t>
+  </si>
+  <si>
+    <t>Unusually High Leg Days at Sea</t>
+  </si>
+  <si>
+    <t>The cruise name does not follow the naming convention {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
+  </si>
+  <si>
+    <t>The Cruise (HA1007) with Start Date (09/04/2010) and End Date (09/29/2010) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
+  </si>
+  <si>
+    <t>The Cruise (HA1007 (copy)) with Start Date (09/04/2010) and End Date (09/29/2010) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
+  </si>
+  <si>
+    <t>The Cruise (HI0401) with Start Date (09/13/2004) and End Date (09/05/2004) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
+  </si>
+  <si>
+    <t>The Cruise (HI0610) with Start Date (07/27/2006) and End Date (08/20/2006) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
+  </si>
+  <si>
+    <t>The Cruise (HI1001) with Start Date (01/21/2010) and End Date (07/21/2010) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
+  </si>
+  <si>
+    <t>The Cruise (HI1101) with Start Date (11/05/2010) and End Date (07/24/2011) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
+  </si>
+  <si>
+    <t>The Cruise (HI1102) with Start Date (07/23/2011) and End Date (08/30/2011) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
+  </si>
+  <si>
+    <t>The Cruise (OES0411) with Start Date (08/07/2004) and End Date (09/13/2005) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
+  </si>
+  <si>
+    <t>The Cruise (OES0509) with Start Date (07/19/2005) and End Date (08/05/2005) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
+  </si>
+  <si>
+    <t>The Cruise (OES0607) with Start Date (06/05/2006) and End Date (06/05/2006) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
+  </si>
+  <si>
+    <t>The Cruise (OES0706) with Start Date (07/18/2007) and End Date (08/14/2007) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
+  </si>
+  <si>
+    <t>The Cruise (TC0009 (copy)) with Start Date () and End Date () has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
+  </si>
+  <si>
+    <t>The Cruise (TC0201) with Start Date (01/21/2002) and End Date (07/24/2002) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
   </si>
 </sst>
 </file>
@@ -748,12 +748,13 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="69" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -794,10 +795,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -886,10 +887,10 @@
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -918,7 +919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -932,10 +933,10 @@
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -987,7 +988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1001,10 +1002,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -1033,7 +1034,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1047,10 +1048,10 @@
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -1090,16 +1091,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1113,16 +1114,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1136,16 +1137,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1159,47 +1160,47 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1208,10 +1209,10 @@
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1219,10 +1220,10 @@
     </row>
     <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -1234,7 +1235,7 @@
         <v>41</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
         <v>43</v>
@@ -1242,10 +1243,10 @@
     </row>
     <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -1257,7 +1258,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
@@ -1265,79 +1266,79 @@
     </row>
     <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
@@ -1346,10 +1347,10 @@
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1357,10 +1358,10 @@
     </row>
     <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -1372,7 +1373,7 @@
         <v>12</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
@@ -1380,56 +1381,56 @@
     </row>
     <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G28" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -1438,10 +1439,10 @@
         <v>9</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1449,56 +1450,56 @@
     </row>
     <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -1507,10 +1508,10 @@
         <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1518,10 +1519,10 @@
     </row>
     <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -1530,10 +1531,10 @@
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1541,10 +1542,10 @@
     </row>
     <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
@@ -1553,10 +1554,10 @@
         <v>9</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1564,79 +1565,79 @@
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
         <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
         <v>33</v>
@@ -1648,7 +1649,7 @@
         <v>35</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s">
         <v>37</v>
@@ -1656,122 +1657,122 @@
     </row>
     <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
         <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G41" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G42" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
         <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G43" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="G44" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
@@ -1783,15 +1784,15 @@
         <v>17</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
@@ -1800,7 +1801,7 @@
         <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>131</v>
@@ -1809,12 +1810,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
@@ -1823,7 +1824,7 @@
         <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>132</v>
@@ -1834,51 +1835,56 @@
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
         <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>114</v>
       </c>
       <c r="G48" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
         <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>115</v>
       </c>
       <c r="G49" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G49">
+    <sortCondition ref="A2:A49"/>
+    <sortCondition ref="C2:C49"/>
+    <sortCondition ref="D2:D49"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1892,6 +1898,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="203.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1930,10 +1945,10 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -2022,10 +2037,10 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -2068,10 +2083,10 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -2137,10 +2152,10 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -2183,10 +2198,10 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -2226,16 +2241,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2249,16 +2264,16 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2272,16 +2287,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2295,47 +2310,47 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -2344,10 +2359,10 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -2355,10 +2370,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -2370,7 +2385,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
         <v>43</v>
@@ -2378,10 +2393,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -2393,7 +2408,7 @@
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
@@ -2401,79 +2416,79 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
@@ -2482,10 +2497,10 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -2493,10 +2508,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -2508,7 +2523,7 @@
         <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
@@ -2516,56 +2531,56 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G28" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -2574,10 +2589,10 @@
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -2585,56 +2600,56 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -2643,10 +2658,10 @@
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F33" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -2654,10 +2669,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -2666,10 +2681,10 @@
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F34" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -2677,10 +2692,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
@@ -2689,10 +2704,10 @@
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -2700,79 +2715,79 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
         <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
         <v>33</v>
@@ -2784,7 +2799,7 @@
         <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s">
         <v>37</v>
@@ -2792,122 +2807,122 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
         <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E41" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G41" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E42" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F42" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G42" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
         <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F43" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G43" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E44" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="F44" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="G44" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
@@ -2919,7 +2934,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G45" t="s">
         <v>19</v>
@@ -2927,7 +2942,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
@@ -2936,7 +2951,7 @@
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F46" t="s">
         <v>131</v>
@@ -2947,10 +2962,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
@@ -2959,7 +2974,7 @@
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F47" t="s">
         <v>132</v>
@@ -2970,48 +2985,48 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
         <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="E48" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F48" t="s">
         <v>114</v>
       </c>
       <c r="G48" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
         <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F49" t="s">
         <v>115</v>
       </c>
       <c r="G49" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3023,9 +3038,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="str">
@@ -4742,7 +4764,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/docs/test cases/DVM_PKG/verification_templates/DVM_error_verification.xlsx
+++ b/docs/test cases/DVM_PKG/verification_templates/DVM_error_verification.xlsx
@@ -48,9 +48,6 @@
     <t>HA1007</t>
   </si>
   <si>
-    <t>FATAL</t>
-  </si>
-  <si>
     <t>Invalid Cruise Name</t>
   </si>
   <si>
@@ -421,6 +418,9 @@
   </si>
   <si>
     <t>The Cruise (TC0201) with Start Date (01/21/2002) and End Date (07/24/2002) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
+  </si>
+  <si>
+    <t>ERROR</t>
   </si>
 </sst>
 </file>
@@ -749,7 +749,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,19 +789,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -812,1071 +812,1071 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" t="s">
         <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" t="s">
         <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" t="s">
         <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
       <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
         <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
       <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" t="s">
         <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
       <c r="C13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
         <v>9</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" t="s">
         <v>42</v>
-      </c>
-      <c r="G14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" t="s">
         <v>52</v>
-      </c>
-      <c r="G15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" t="s">
         <v>44</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" t="s">
         <v>46</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" t="s">
         <v>48</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" t="s">
         <v>58</v>
-      </c>
-      <c r="G19" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
       <c r="C20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" t="s">
         <v>9</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
-        <v>55</v>
-      </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
       <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
         <v>33</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" t="s">
         <v>46</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" t="s">
         <v>48</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
       <c r="C26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" t="s">
         <v>9</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
         <v>67</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" t="s">
         <v>68</v>
       </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" t="s">
         <v>71</v>
-      </c>
-      <c r="G29" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
       <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" t="s">
         <v>8</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" t="s">
         <v>9</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
         <v>67</v>
       </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" t="s">
         <v>48</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G31" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" t="s">
         <v>73</v>
       </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" t="s">
         <v>76</v>
-      </c>
-      <c r="G32" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" t="s">
         <v>8</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" t="s">
         <v>9</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G33" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" t="s">
         <v>9</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G34" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" t="s">
         <v>8</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" t="s">
         <v>9</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G35" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" t="s">
         <v>79</v>
       </c>
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" t="s">
         <v>82</v>
-      </c>
-      <c r="G36" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
         <v>84</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="G37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
         <v>84</v>
       </c>
-      <c r="B38" t="s">
-        <v>85</v>
-      </c>
       <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
         <v>33</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
         <v>84</v>
       </c>
-      <c r="B39" t="s">
-        <v>85</v>
-      </c>
       <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
         <v>33</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
         <v>84</v>
       </c>
-      <c r="B40" t="s">
-        <v>85</v>
-      </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" t="s">
         <v>44</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G40" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
         <v>89</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" t="s">
         <v>90</v>
       </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" t="s">
         <v>93</v>
-      </c>
-      <c r="G41" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
         <v>89</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" t="s">
         <v>90</v>
       </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
         <v>89</v>
       </c>
-      <c r="B43" t="s">
-        <v>90</v>
-      </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43" t="s">
         <v>48</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G43" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" t="s">
         <v>96</v>
       </c>
-      <c r="B44" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" t="s">
         <v>97</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G44" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" t="s">
         <v>8</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" t="s">
         <v>9</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G46" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
         <v>101</v>
       </c>
-      <c r="B47" t="s">
-        <v>102</v>
-      </c>
       <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" t="s">
         <v>8</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" t="s">
         <v>9</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G47" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
         <v>101</v>
       </c>
-      <c r="B48" t="s">
-        <v>102</v>
-      </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48" t="s">
         <v>46</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G48" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
         <v>101</v>
       </c>
-      <c r="B49" t="s">
-        <v>102</v>
-      </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" t="s">
         <v>48</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G49" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1939,19 +1939,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1962,1071 +1962,1071 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" t="s">
         <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" t="s">
         <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
       <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
         <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
       <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>35</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
       <c r="C13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
         <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>42</v>
-      </c>
-      <c r="G14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>51</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>52</v>
-      </c>
-      <c r="G15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" t="s">
         <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" t="s">
         <v>46</v>
-      </c>
-      <c r="F17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" t="s">
         <v>48</v>
-      </c>
-      <c r="F18" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>56</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>57</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>58</v>
-      </c>
-      <c r="G19" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
       <c r="C20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" t="s">
         <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
         <v>40</v>
       </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
-        <v>55</v>
-      </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
         <v>11</v>
       </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
       <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
         <v>33</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>34</v>
       </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" t="s">
         <v>46</v>
-      </c>
-      <c r="F24" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" t="s">
         <v>48</v>
-      </c>
-      <c r="F25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
       <c r="C26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" t="s">
         <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
         <v>64</v>
       </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
-        <v>65</v>
-      </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
         <v>50</v>
       </c>
-      <c r="E28" t="s">
-        <v>51</v>
-      </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
         <v>67</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" t="s">
         <v>68</v>
       </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>69</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>70</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>71</v>
-      </c>
-      <c r="G29" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
       <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" t="s">
         <v>8</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" t="s">
         <v>9</v>
-      </c>
-      <c r="E30" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
         <v>67</v>
       </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" t="s">
         <v>48</v>
-      </c>
-      <c r="F31" t="s">
-        <v>111</v>
-      </c>
-      <c r="G31" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" t="s">
         <v>73</v>
       </c>
-      <c r="B32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>74</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>75</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>76</v>
-      </c>
-      <c r="G32" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" t="s">
         <v>8</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" t="s">
         <v>9</v>
-      </c>
-      <c r="E33" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" t="s">
-        <v>128</v>
-      </c>
-      <c r="G33" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" t="s">
         <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" t="s">
-        <v>129</v>
-      </c>
-      <c r="G34" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" t="s">
         <v>8</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" t="s">
         <v>9</v>
-      </c>
-      <c r="E35" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" t="s">
-        <v>130</v>
-      </c>
-      <c r="G35" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" t="s">
         <v>79</v>
       </c>
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>80</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>81</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>82</v>
-      </c>
-      <c r="G36" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
         <v>84</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" t="s">
         <v>85</v>
       </c>
-      <c r="C37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" t="s">
-        <v>86</v>
-      </c>
       <c r="G37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
         <v>84</v>
       </c>
-      <c r="B38" t="s">
-        <v>85</v>
-      </c>
       <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
         <v>33</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>34</v>
       </c>
-      <c r="E38" t="s">
-        <v>35</v>
-      </c>
       <c r="F38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
         <v>84</v>
       </c>
-      <c r="B39" t="s">
-        <v>85</v>
-      </c>
       <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
         <v>33</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>34</v>
       </c>
-      <c r="E39" t="s">
-        <v>35</v>
-      </c>
       <c r="F39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
         <v>84</v>
       </c>
-      <c r="B40" t="s">
-        <v>85</v>
-      </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" t="s">
         <v>44</v>
-      </c>
-      <c r="F40" t="s">
-        <v>112</v>
-      </c>
-      <c r="G40" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
         <v>89</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" t="s">
         <v>90</v>
       </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>91</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>92</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>93</v>
-      </c>
-      <c r="G41" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
         <v>89</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" t="s">
         <v>90</v>
       </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>91</v>
       </c>
-      <c r="E42" t="s">
-        <v>92</v>
-      </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
         <v>89</v>
       </c>
-      <c r="B43" t="s">
-        <v>90</v>
-      </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43" t="s">
         <v>48</v>
-      </c>
-      <c r="F43" t="s">
-        <v>113</v>
-      </c>
-      <c r="G43" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" t="s">
         <v>96</v>
       </c>
-      <c r="B44" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" t="s">
         <v>97</v>
-      </c>
-      <c r="E44" t="s">
-        <v>104</v>
-      </c>
-      <c r="F44" t="s">
-        <v>105</v>
-      </c>
-      <c r="G44" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
         <v>99</v>
       </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" t="s">
-        <v>100</v>
-      </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" t="s">
         <v>8</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" t="s">
         <v>9</v>
-      </c>
-      <c r="E46" t="s">
-        <v>119</v>
-      </c>
-      <c r="F46" t="s">
-        <v>131</v>
-      </c>
-      <c r="G46" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
         <v>101</v>
       </c>
-      <c r="B47" t="s">
-        <v>102</v>
-      </c>
       <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" t="s">
         <v>8</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" t="s">
         <v>9</v>
-      </c>
-      <c r="E47" t="s">
-        <v>119</v>
-      </c>
-      <c r="F47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G47" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
         <v>101</v>
       </c>
-      <c r="B48" t="s">
-        <v>102</v>
-      </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48" t="s">
         <v>46</v>
-      </c>
-      <c r="F48" t="s">
-        <v>114</v>
-      </c>
-      <c r="G48" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
         <v>101</v>
       </c>
-      <c r="B49" t="s">
-        <v>102</v>
-      </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" t="s">
         <v>48</v>
-      </c>
-      <c r="F49" t="s">
-        <v>115</v>
-      </c>
-      <c r="G49" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3039,7 +3039,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4764,7 +4764,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
